--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>411.5382569839878</v>
+        <v>489.1532262887676</v>
       </c>
       <c r="AB2" t="n">
-        <v>563.0847989920201</v>
+        <v>669.2810241256025</v>
       </c>
       <c r="AC2" t="n">
-        <v>509.3447760706998</v>
+        <v>605.4057825248711</v>
       </c>
       <c r="AD2" t="n">
-        <v>411538.2569839878</v>
+        <v>489153.2262887676</v>
       </c>
       <c r="AE2" t="n">
-        <v>563084.7989920201</v>
+        <v>669281.0241256024</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.796234108234212e-06</v>
+        <v>2.589566793447142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>509344.7760706998</v>
+        <v>605405.7825248712</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.1433406323098</v>
+        <v>313.8582960591902</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.676083601103</v>
+        <v>429.4347671189738</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.444541587258</v>
+        <v>388.4501156606191</v>
       </c>
       <c r="AD3" t="n">
-        <v>262143.3406323098</v>
+        <v>313858.2960591902</v>
       </c>
       <c r="AE3" t="n">
-        <v>358676.083601103</v>
+        <v>429434.7671189738</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.494886302311743e-06</v>
+        <v>3.596788799564543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.18171296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>324444.541587258</v>
+        <v>388450.1156606191</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.6112230379721</v>
+        <v>268.3260889563041</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.3770315731329</v>
+        <v>367.1355926215974</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.0912236476568</v>
+        <v>332.0966869398318</v>
       </c>
       <c r="AD4" t="n">
-        <v>216611.2230379721</v>
+        <v>268326.0889563041</v>
       </c>
       <c r="AE4" t="n">
-        <v>296377.0315731328</v>
+        <v>367135.5926215974</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76609128842137e-06</v>
+        <v>3.987775376997472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>268091.2236476568</v>
+        <v>332096.6869398318</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.4588335842825</v>
+        <v>244.5404212156787</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.6448638463609</v>
+        <v>334.5909926691147</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.3377049109413</v>
+        <v>302.6580979302815</v>
       </c>
       <c r="AD5" t="n">
-        <v>201458.8335842825</v>
+        <v>244540.4212156787</v>
       </c>
       <c r="AE5" t="n">
-        <v>275644.8638463609</v>
+        <v>334590.9926691147</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.908311099107828e-06</v>
+        <v>4.192808617061061e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.45138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>249337.7049109413</v>
+        <v>302658.0979302815</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.4917822910341</v>
+        <v>242.5733699224304</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.9534574867616</v>
+        <v>331.8995863095153</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.9031625968887</v>
+        <v>300.223555616229</v>
       </c>
       <c r="AD6" t="n">
-        <v>199491.7822910341</v>
+        <v>242573.3699224304</v>
       </c>
       <c r="AE6" t="n">
-        <v>272953.4574867616</v>
+        <v>331899.5863095153</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.92863571754788e-06</v>
+        <v>4.222109896198656e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.37615740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>246903.1625968887</v>
+        <v>300223.555616229</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.9063518388896</v>
+        <v>386.1603994243422</v>
       </c>
       <c r="AB2" t="n">
-        <v>436.3417397412618</v>
+        <v>528.3616946868543</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.6978965098331</v>
+        <v>477.9355961062362</v>
       </c>
       <c r="AD2" t="n">
-        <v>318906.3518388896</v>
+        <v>386160.3994243423</v>
       </c>
       <c r="AE2" t="n">
-        <v>436341.7397412618</v>
+        <v>528361.6946868544</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.125915045602515e-06</v>
+        <v>3.112259652064188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>394697.8965098331</v>
+        <v>477935.5961062362</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.0800278299459</v>
+        <v>268.4139769593746</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.3867150886044</v>
+        <v>367.2558448647434</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.909105789021</v>
+        <v>332.2054624776671</v>
       </c>
       <c r="AD3" t="n">
-        <v>218080.0278299459</v>
+        <v>268413.9769593746</v>
       </c>
       <c r="AE3" t="n">
-        <v>298386.7150886044</v>
+        <v>367255.8448647434</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.780368729204045e-06</v>
+        <v>4.070355224994554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>269909.105789021</v>
+        <v>332205.4624776671</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.3305033203016</v>
+        <v>230.3323697492956</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.6821031981366</v>
+        <v>315.1509098378267</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.0892849280849</v>
+        <v>285.0733493200779</v>
       </c>
       <c r="AD4" t="n">
-        <v>188330.5033203016</v>
+        <v>230332.3697492956</v>
       </c>
       <c r="AE4" t="n">
-        <v>257682.1031981367</v>
+        <v>315150.9098378267</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.012138562696003e-06</v>
+        <v>4.409657542288339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.43981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>233089.2849280849</v>
+        <v>285073.3493200779</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.5735718102712</v>
+        <v>229.5754382392652</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.6464361126522</v>
+        <v>314.1152427523422</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.1524604556709</v>
+        <v>284.1365248476638</v>
       </c>
       <c r="AD5" t="n">
-        <v>187573.5718102712</v>
+        <v>229575.4382392652</v>
       </c>
       <c r="AE5" t="n">
-        <v>256646.4361126522</v>
+        <v>314115.2427523423</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.028383096267052e-06</v>
+        <v>4.433438928334012e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>232152.4604556709</v>
+        <v>284136.5248476638</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.1586294730516</v>
+        <v>207.9951626528014</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.450299596962</v>
+        <v>284.5881576403909</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.3610078460304</v>
+        <v>257.4274632972636</v>
       </c>
       <c r="AD2" t="n">
-        <v>169158.6294730516</v>
+        <v>207995.1626528013</v>
       </c>
       <c r="AE2" t="n">
-        <v>231450.299596962</v>
+        <v>284588.1576403909</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.178387532143096e-06</v>
+        <v>4.917357829863702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>209361.0078460304</v>
+        <v>257427.4632972635</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.2174440525625</v>
+        <v>208.0539772323123</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.530772299365</v>
+        <v>284.668630342794</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.4338003466603</v>
+        <v>257.5002557978934</v>
       </c>
       <c r="AD3" t="n">
-        <v>169217.4440525626</v>
+        <v>208053.9772323123</v>
       </c>
       <c r="AE3" t="n">
-        <v>231530.772299365</v>
+        <v>284668.6303427939</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.185298651748351e-06</v>
+        <v>4.928050184952671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.01273148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>209433.8003466603</v>
+        <v>257500.2557978934</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.6516226316482</v>
+        <v>260.6951643560977</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.9593316119618</v>
+        <v>356.6946249309614</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.1905813669886</v>
+        <v>322.6521905516</v>
       </c>
       <c r="AD2" t="n">
-        <v>212651.6226316482</v>
+        <v>260695.1643560978</v>
       </c>
       <c r="AE2" t="n">
-        <v>290959.3316119618</v>
+        <v>356694.6249309614</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.787273953016642e-06</v>
+        <v>4.212390313582376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.04282407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>263190.5813669886</v>
+        <v>322652.1905516</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.8302466317603</v>
+        <v>217.8736988476555</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.3692358231647</v>
+        <v>298.1044066724426</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.1922420885397</v>
+        <v>269.6537404918752</v>
       </c>
       <c r="AD3" t="n">
-        <v>169830.2466317603</v>
+        <v>217873.6988476555</v>
       </c>
       <c r="AE3" t="n">
-        <v>232369.2358231647</v>
+        <v>298104.4066724426</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.160020154478136e-06</v>
+        <v>4.77571939960984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.61921296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>210192.2420885397</v>
+        <v>269653.7404918752</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6145041737294</v>
+        <v>207.9673739965757</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.4963386560015</v>
+        <v>284.550135974994</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.2616003703093</v>
+        <v>257.3930703662484</v>
       </c>
       <c r="AD2" t="n">
-        <v>162614.5041737294</v>
+        <v>207967.3739965757</v>
       </c>
       <c r="AE2" t="n">
-        <v>222496.3386560015</v>
+        <v>284550.135974994</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.145315450644168e-06</v>
+        <v>4.971133295581915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>201261.6003703093</v>
+        <v>257393.0703662484</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.2832442974359</v>
+        <v>412.9061133163663</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.4317676694126</v>
+        <v>564.9563603715427</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.3435428251935</v>
+        <v>511.0377182589138</v>
       </c>
       <c r="AD2" t="n">
-        <v>345283.2442974359</v>
+        <v>412906.1133163663</v>
       </c>
       <c r="AE2" t="n">
-        <v>472431.7676694127</v>
+        <v>564956.3603715427</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.034616644643496e-06</v>
+        <v>2.966239709410734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>427343.5428251935</v>
+        <v>511037.7182589138</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.5198765418498</v>
+        <v>277.3649724564946</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.9344884360723</v>
+        <v>379.5029917939544</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.3547758556119</v>
+        <v>343.2837588929329</v>
       </c>
       <c r="AD3" t="n">
-        <v>226519.8765418498</v>
+        <v>277364.9724564946</v>
       </c>
       <c r="AE3" t="n">
-        <v>309934.4884360724</v>
+        <v>379502.9917939544</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7067739970934e-06</v>
+        <v>3.946168697536474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>280354.7758556119</v>
+        <v>343283.7588929329</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.4892820176283</v>
+        <v>236.945536134401</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.1088159179549</v>
+        <v>324.1993358382334</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.7117640128919</v>
+        <v>293.2582062425544</v>
       </c>
       <c r="AD4" t="n">
-        <v>194489.2820176283</v>
+        <v>236945.536134401</v>
       </c>
       <c r="AE4" t="n">
-        <v>266108.8159179549</v>
+        <v>324199.3358382334</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.961013585227688e-06</v>
+        <v>4.316821107175192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>240711.7640128919</v>
+        <v>293258.2062425544</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.2753732597438</v>
+        <v>232.5610351759242</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.3431600508864</v>
+        <v>318.2002681963179</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.4963742496257</v>
+        <v>287.831681196637</v>
       </c>
       <c r="AD5" t="n">
-        <v>190275.3732597438</v>
+        <v>232561.0351759242</v>
       </c>
       <c r="AE5" t="n">
-        <v>260343.1600508863</v>
+        <v>318200.2681963179</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.00214849529431e-06</v>
+        <v>4.376791128556804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.37615740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>235496.3742496257</v>
+        <v>287831.681196637</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.0891771282734</v>
+        <v>211.616097668515</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.618783601044</v>
+        <v>289.5424806732666</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.7997277627043</v>
+        <v>261.9089526933192</v>
       </c>
       <c r="AD2" t="n">
-        <v>167089.1771282734</v>
+        <v>211616.097668515</v>
       </c>
       <c r="AE2" t="n">
-        <v>228618.783601044</v>
+        <v>289542.4806732666</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.086766524691657e-06</v>
+        <v>4.945725046845127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.0775462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>206799.7277627043</v>
+        <v>261908.9526933192</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.4538290942498</v>
+        <v>320.9157266474679</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.4691517293999</v>
+        <v>439.0910550017188</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.0664818099772</v>
+        <v>397.1848209805202</v>
       </c>
       <c r="AD2" t="n">
-        <v>263453.8290942498</v>
+        <v>320915.7266474679</v>
       </c>
       <c r="AE2" t="n">
-        <v>360469.1517293999</v>
+        <v>439091.0550017188</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.421029448141016e-06</v>
+        <v>3.594849106122309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.37962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>326066.4818099772</v>
+        <v>397184.8209805202</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.3172588356185</v>
+        <v>232.6311949128837</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.8227609254594</v>
+        <v>318.2962638436549</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.8845886547624</v>
+        <v>287.9185151541229</v>
       </c>
       <c r="AD3" t="n">
-        <v>183317.2588356185</v>
+        <v>232631.1949128837</v>
       </c>
       <c r="AE3" t="n">
-        <v>250822.7609254594</v>
+        <v>318296.2638436549</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.038279725005158e-06</v>
+        <v>4.511368980650312e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>226884.5886547624</v>
+        <v>287918.515154123</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.0202880598724</v>
+        <v>220.1011008237158</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.943455941115</v>
+        <v>301.1520363221266</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.5663962864656</v>
+        <v>272.4105086451694</v>
       </c>
       <c r="AD4" t="n">
-        <v>179020.2880598724</v>
+        <v>220101.1008237158</v>
       </c>
       <c r="AE4" t="n">
-        <v>244943.455941115</v>
+        <v>301152.0363221266</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.09671894592165e-06</v>
+        <v>4.598142060273713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.46296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>221566.3962864656</v>
+        <v>272410.5086451694</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.6413332499959</v>
+        <v>360.0656247555021</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.7189796290738</v>
+        <v>492.657672764738</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.3296594680002</v>
+        <v>445.6391159254571</v>
       </c>
       <c r="AD2" t="n">
-        <v>301641.3332499958</v>
+        <v>360065.6247555021</v>
       </c>
       <c r="AE2" t="n">
-        <v>412718.9796290738</v>
+        <v>492657.672764738</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.223878895327787e-06</v>
+        <v>3.270085996157483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>373329.6594680002</v>
+        <v>445639.1159254571</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.1111374263238</v>
+        <v>250.9037575431078</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.1150835588559</v>
+        <v>343.2975901628846</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.8086615491247</v>
+        <v>310.5337499790351</v>
       </c>
       <c r="AD3" t="n">
-        <v>209111.1374263238</v>
+        <v>250903.7575431078</v>
       </c>
       <c r="AE3" t="n">
-        <v>286115.0835588559</v>
+        <v>343297.5901628846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.865901346464886e-06</v>
+        <v>4.214143080872376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>258808.6615491247</v>
+        <v>310533.7499790351</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.8207366809016</v>
+        <v>226.528015943114</v>
       </c>
       <c r="AB4" t="n">
-        <v>252.879885642136</v>
+        <v>309.945625123967</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.7453842756727</v>
+        <v>280.3648496736443</v>
       </c>
       <c r="AD4" t="n">
-        <v>184820.7366809016</v>
+        <v>226528.015943114</v>
       </c>
       <c r="AE4" t="n">
-        <v>252879.885642136</v>
+        <v>309945.625123967</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.046288484837509e-06</v>
+        <v>4.479391991826355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>228745.3842756727</v>
+        <v>280364.8496736443</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.2638841902876</v>
+        <v>226.9711634525</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.4862196147659</v>
+        <v>310.5519590965969</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.2938505849501</v>
+        <v>280.9133159829217</v>
       </c>
       <c r="AD5" t="n">
-        <v>185263.8841902876</v>
+        <v>226971.1634525</v>
       </c>
       <c r="AE5" t="n">
-        <v>253486.2196147659</v>
+        <v>310551.9590965969</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.04530126425657e-06</v>
+        <v>4.47794034074786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.4224537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>229293.8505849501</v>
+        <v>280913.3159829217</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.6590682774924</v>
+        <v>459.2297785981053</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.5169718789972</v>
+        <v>628.3384428658962</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.5034222821466</v>
+        <v>568.3707037573178</v>
       </c>
       <c r="AD2" t="n">
-        <v>390659.0682774924</v>
+        <v>459229.7785981053</v>
       </c>
       <c r="AE2" t="n">
-        <v>534516.9718789972</v>
+        <v>628338.4428658963</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874119141519799e-06</v>
+        <v>2.711424048166287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.34837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>483503.4222821466</v>
+        <v>568370.7037573177</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.5444610598248</v>
+        <v>304.4477458089888</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.5965201621007</v>
+        <v>416.558837102472</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.6630978870949</v>
+        <v>376.8030463334111</v>
       </c>
       <c r="AD3" t="n">
-        <v>244544.4610598248</v>
+        <v>304447.7458089888</v>
       </c>
       <c r="AE3" t="n">
-        <v>334596.5201621007</v>
+        <v>416558.837102472</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560516203520412e-06</v>
+        <v>3.704484446124709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.96180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>302663.0978870949</v>
+        <v>376803.0463334111</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.1973507464653</v>
+        <v>260.6039811418713</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.2330444269367</v>
+        <v>356.5698640345373</v>
       </c>
       <c r="AC4" t="n">
-        <v>258.915364397515</v>
+        <v>322.5393366600276</v>
       </c>
       <c r="AD4" t="n">
-        <v>209197.3507464653</v>
+        <v>260603.9811418713</v>
       </c>
       <c r="AE4" t="n">
-        <v>286233.0444269367</v>
+        <v>356569.8640345373</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.82960121556338e-06</v>
+        <v>4.093789243504215e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8275462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>258915.364397515</v>
+        <v>322539.3366600276</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.5634196548577</v>
+        <v>239.3881443504824</v>
       </c>
       <c r="AB5" t="n">
-        <v>268.9467425377052</v>
+        <v>327.5414201597435</v>
       </c>
       <c r="AC5" t="n">
-        <v>243.2788428991092</v>
+        <v>296.2813267270654</v>
       </c>
       <c r="AD5" t="n">
-        <v>196563.4196548577</v>
+        <v>239388.1443504824</v>
       </c>
       <c r="AE5" t="n">
-        <v>268946.7425377052</v>
+        <v>327541.4201597435</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.946224131465535e-06</v>
+        <v>4.26251607187861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.39930555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>243278.8428991092</v>
+        <v>296281.3267270654</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>196.3895142187249</v>
+        <v>239.2142389143496</v>
       </c>
       <c r="AB6" t="n">
-        <v>268.7087974478221</v>
+        <v>327.3034750698603</v>
       </c>
       <c r="AC6" t="n">
-        <v>243.0636069546465</v>
+        <v>296.0660907826025</v>
       </c>
       <c r="AD6" t="n">
-        <v>196389.5142187249</v>
+        <v>239214.2389143496</v>
       </c>
       <c r="AE6" t="n">
-        <v>268708.7974478221</v>
+        <v>327303.4750698603</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.957394097536963e-06</v>
+        <v>4.278676471691137e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3587962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>243063.6069546465</v>
+        <v>296066.0907826026</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.03757425263</v>
+        <v>275.697770506398</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.6428252831725</v>
+        <v>377.2218525340732</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.9955100281821</v>
+        <v>341.2203283624157</v>
       </c>
       <c r="AD2" t="n">
-        <v>227037.57425263</v>
+        <v>275697.770506398</v>
       </c>
       <c r="AE2" t="n">
-        <v>310642.8252831725</v>
+        <v>377221.8525340732</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649416724157547e-06</v>
+        <v>3.978588330833902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>280995.5100281821</v>
+        <v>341220.3283624157</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.1262353162545</v>
+        <v>221.6157498608758</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.8789529500457</v>
+        <v>303.2244459563676</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.2715581422604</v>
+        <v>274.2851304125642</v>
       </c>
       <c r="AD3" t="n">
-        <v>173126.2353162545</v>
+        <v>221615.7498608758</v>
       </c>
       <c r="AE3" t="n">
-        <v>236878.9529500458</v>
+        <v>303224.4459563675</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.133529034079593e-06</v>
+        <v>4.705572338108689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>214271.5581422604</v>
+        <v>274285.1304125641</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.0539103148785</v>
+        <v>213.6182973354443</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.7799946924093</v>
+        <v>292.2819785883731</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.182044321844</v>
+        <v>264.3869967723182</v>
       </c>
       <c r="AD4" t="n">
-        <v>173053.9103148785</v>
+        <v>213618.2973354443</v>
       </c>
       <c r="AE4" t="n">
-        <v>236779.9946924093</v>
+        <v>292281.9785883731</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.144410536372884e-06</v>
+        <v>4.72191292268011e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.53819444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>214182.0443218439</v>
+        <v>264386.9967723182</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.0169233750921</v>
+        <v>225.9954831269819</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.9388522309591</v>
+        <v>309.2169902312456</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.5622319479457</v>
+        <v>279.7057546724386</v>
       </c>
       <c r="AD2" t="n">
-        <v>179016.9233750921</v>
+        <v>225995.4831269819</v>
       </c>
       <c r="AE2" t="n">
-        <v>244938.8522309591</v>
+        <v>309216.9902312456</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.067228894620885e-06</v>
+        <v>4.704352345200874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25578703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>221562.2319479457</v>
+        <v>279705.7546724385</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.8857773476567</v>
+        <v>210.949588445567</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.2357506971822</v>
+        <v>288.6305333501179</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.8350053675603</v>
+        <v>261.0840403427654</v>
       </c>
       <c r="AD3" t="n">
-        <v>163885.7773476567</v>
+        <v>210949.588445567</v>
       </c>
       <c r="AE3" t="n">
-        <v>224235.7506971822</v>
+        <v>288630.5333501179</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.190003957155015e-06</v>
+        <v>4.892658198206347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.82175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>202835.0053675603</v>
+        <v>261084.0403427655</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.5048987649025</v>
+        <v>211.3438671048581</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.4511040508524</v>
+        <v>289.1700028061066</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.8389285064249</v>
+        <v>261.5720235910248</v>
       </c>
       <c r="AD2" t="n">
-        <v>165504.8987649025</v>
+        <v>211343.8671048581</v>
       </c>
       <c r="AE2" t="n">
-        <v>226451.1040508524</v>
+        <v>289170.0028061066</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.178831511862834e-06</v>
+        <v>4.966861533672082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.23263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>204838.9285064249</v>
+        <v>261572.0235910248</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2715818010164</v>
+        <v>212.110550140972</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.5001136045313</v>
+        <v>290.2190123597855</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.7878220605952</v>
+        <v>262.5209171451951</v>
       </c>
       <c r="AD3" t="n">
-        <v>166271.5818010164</v>
+        <v>212110.550140972</v>
       </c>
       <c r="AE3" t="n">
-        <v>227500.1136045313</v>
+        <v>290219.0123597855</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176980124843695e-06</v>
+        <v>4.963968777973962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.23842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>205787.8220605952</v>
+        <v>262520.9171451951</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.3014165592647</v>
+        <v>216.0520430228033</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.7503995382975</v>
+        <v>295.6119368070981</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.2507122841943</v>
+        <v>267.3991484522749</v>
       </c>
       <c r="AD2" t="n">
-        <v>172301.4165592647</v>
+        <v>216052.0430228033</v>
       </c>
       <c r="AE2" t="n">
-        <v>235750.3995382975</v>
+        <v>295611.936807098</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.942303471771153e-06</v>
+        <v>4.795001744269845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02662037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>213250.7122841944</v>
+        <v>267399.1484522749</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.9011017973505</v>
+        <v>336.9814712718989</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.6047917273571</v>
+        <v>461.0729155674955</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.1849659905864</v>
+        <v>417.0687636256342</v>
       </c>
       <c r="AD2" t="n">
-        <v>278901.1017973505</v>
+        <v>336981.4712718989</v>
       </c>
       <c r="AE2" t="n">
-        <v>381604.7917273571</v>
+        <v>461072.9155674955</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.313437618713998e-06</v>
+        <v>3.417828330917401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>345184.9659905864</v>
+        <v>417068.7636256343</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.7524341040816</v>
+        <v>242.4502670848365</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.7323839783195</v>
+        <v>331.7311515762054</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.5621354022314</v>
+        <v>300.0711960574665</v>
       </c>
       <c r="AD3" t="n">
-        <v>192752.4341040816</v>
+        <v>242450.2670848365</v>
       </c>
       <c r="AE3" t="n">
-        <v>263732.3839783195</v>
+        <v>331731.1515762054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.938438017429399e-06</v>
+        <v>4.341191922952193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.90856481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>238562.1354022314</v>
+        <v>300071.1960574664</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.5625921410633</v>
+        <v>222.9633189911481</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.4219485435389</v>
+        <v>305.0682494909593</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.7129064370103</v>
+        <v>275.9529639256096</v>
       </c>
       <c r="AD4" t="n">
-        <v>181562.5921410633</v>
+        <v>222963.3189911481</v>
       </c>
       <c r="AE4" t="n">
-        <v>248421.9485435389</v>
+        <v>305068.2494909593</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075812916730489e-06</v>
+        <v>4.544146962236628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.4224537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>224712.9064370103</v>
+        <v>275952.9639256096</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.7367660299072</v>
+        <v>430.9686287555604</v>
       </c>
       <c r="AB2" t="n">
-        <v>496.3124460988152</v>
+        <v>589.6702908573895</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.9450828220365</v>
+        <v>533.3929859054106</v>
       </c>
       <c r="AD2" t="n">
-        <v>362736.7660299072</v>
+        <v>430968.6287555604</v>
       </c>
       <c r="AE2" t="n">
-        <v>496312.4460988152</v>
+        <v>589670.2908573896</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.954882938888692e-06</v>
+        <v>2.838820433035556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80439814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>448945.0828220365</v>
+        <v>533392.9859054106</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.9791342731134</v>
+        <v>287.1530313173562</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.8770621769793</v>
+        <v>392.8954457460659</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.0621285237071</v>
+        <v>355.3980558362821</v>
       </c>
       <c r="AD3" t="n">
-        <v>235979.1342731134</v>
+        <v>287153.0313173562</v>
       </c>
       <c r="AE3" t="n">
-        <v>322877.0621769793</v>
+        <v>392895.4457460659</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.626705473057195e-06</v>
+        <v>3.814420301156286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.75925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>292062.1285237072</v>
+        <v>355398.0558362821</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.1510082002781</v>
+        <v>253.2395643899456</v>
       </c>
       <c r="AB4" t="n">
-        <v>276.5919276925546</v>
+        <v>346.4935441392518</v>
       </c>
       <c r="AC4" t="n">
-        <v>250.194382312867</v>
+        <v>313.4246865934484</v>
       </c>
       <c r="AD4" t="n">
-        <v>202151.0082002781</v>
+        <v>253239.5643899456</v>
       </c>
       <c r="AE4" t="n">
-        <v>276591.9276925546</v>
+        <v>346493.5441392518</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.888473922728444e-06</v>
+        <v>4.194552333038064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>250194.382312867</v>
+        <v>313424.6865934485</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.5143682831444</v>
+        <v>236.0740311406564</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.7748959362763</v>
+        <v>323.006904257706</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.5051514820958</v>
+        <v>292.1795786584838</v>
       </c>
       <c r="AD5" t="n">
-        <v>193514.3682831444</v>
+        <v>236074.0311406564</v>
       </c>
       <c r="AE5" t="n">
-        <v>264774.8959362762</v>
+        <v>323006.904257706</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.975587729796852e-06</v>
+        <v>4.321056304496275e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>239505.1514820958</v>
+        <v>292179.5786584838</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.7705696279515</v>
+        <v>235.5803069283296</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.1794889839612</v>
+        <v>322.3313690088257</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.9209552985593</v>
+        <v>291.5685155456368</v>
       </c>
       <c r="AD2" t="n">
-        <v>185770.5696279515</v>
+        <v>235580.3069283296</v>
       </c>
       <c r="AE2" t="n">
-        <v>254179.4889839612</v>
+        <v>322331.3690088257</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.627549964191387e-06</v>
+        <v>4.379969243397897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229920.9552985593</v>
+        <v>291568.5155456368</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.9688371777209</v>
+        <v>239.6240830326155</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.6602320938167</v>
+        <v>327.8642418735179</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.5923081888106</v>
+        <v>296.5733387895604</v>
       </c>
       <c r="AD2" t="n">
-        <v>191968.8371777209</v>
+        <v>239624.0830326155</v>
       </c>
       <c r="AE2" t="n">
-        <v>262660.2320938167</v>
+        <v>327864.2418735179</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.916409331835116e-06</v>
+        <v>4.438502673771237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>237592.3081888107</v>
+        <v>296573.3387895604</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.9830152249208</v>
+        <v>214.5529202252437</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.4735282013443</v>
+        <v>293.5607708588479</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.6683353344847</v>
+        <v>265.5437429032955</v>
       </c>
       <c r="AD3" t="n">
-        <v>166983.0152249208</v>
+        <v>214552.9202252437</v>
       </c>
       <c r="AE3" t="n">
-        <v>228473.5282013443</v>
+        <v>293560.7708588479</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176839764620085e-06</v>
+        <v>4.834853473924568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.71180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>206668.3353344847</v>
+        <v>265543.7429032956</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.811812991641</v>
+        <v>297.8900202082907</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.4893464024034</v>
+        <v>407.5862676291615</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.0433456230581</v>
+        <v>368.686806297553</v>
       </c>
       <c r="AD2" t="n">
-        <v>240811.812991641</v>
+        <v>297890.0202082907</v>
       </c>
       <c r="AE2" t="n">
-        <v>329489.3464024034</v>
+        <v>407586.2676291615</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.53183811653633e-06</v>
+        <v>3.779808199707966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.93981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>298043.3456230581</v>
+        <v>368686.806297553</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.5631759433539</v>
+        <v>217.4796225630809</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.5815267431599</v>
+        <v>297.5652141144691</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.525324892665</v>
+        <v>269.166007714873</v>
       </c>
       <c r="AD3" t="n">
-        <v>176563.1759433539</v>
+        <v>217479.6225630809</v>
       </c>
       <c r="AE3" t="n">
-        <v>241581.5267431599</v>
+        <v>297565.2141144691</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.11034829692437e-06</v>
+        <v>4.643472234609493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.53240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>218525.324892665</v>
+        <v>269166.0077148731</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.0131913524631</v>
+        <v>216.759045771598</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.8290135622959</v>
+        <v>296.5792891587582</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.8446305136235</v>
+        <v>268.2741780531805</v>
       </c>
       <c r="AD4" t="n">
-        <v>176013.1913524631</v>
+        <v>216759.0457715979</v>
       </c>
       <c r="AE4" t="n">
-        <v>240829.0135622959</v>
+        <v>296579.2891587582</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.123422932641975e-06</v>
+        <v>4.662991498092739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.48611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>217844.6305136235</v>
+        <v>268274.1780531805</v>
       </c>
     </row>
   </sheetData>
